--- a/output/fit_clients/fit_round_383.xlsx
+++ b/output/fit_clients/fit_round_383.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2336680504.853683</v>
+        <v>2197866911.050205</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09658866341194097</v>
+        <v>0.09379946357079703</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03683650589395624</v>
+        <v>0.03387479513057345</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1168340293.3355</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1741788616.086931</v>
+        <v>1878307747.688716</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1797867056788576</v>
+        <v>0.1682620742832522</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04485744882019767</v>
+        <v>0.03099568505654487</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>870894308.1324514</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3204889844.509222</v>
+        <v>3903579313.420094</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1466604039418231</v>
+        <v>0.1483079848287654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02896206190013239</v>
+        <v>0.03788869340327936</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>138</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1602444880.130856</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3004917406.483352</v>
+        <v>2863739181.364616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1082762595025868</v>
+        <v>0.08185180480552355</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03434827665338543</v>
+        <v>0.03522886191856838</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>141</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1502458772.786225</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2219707895.962977</v>
+        <v>2201122441.590717</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1432588276575563</v>
+        <v>0.1382854016271199</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03596020710560273</v>
+        <v>0.04453708835388853</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1109853953.811295</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2712772980.757915</v>
+        <v>2148379922.108489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09547845962598404</v>
+        <v>0.07846106182364959</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03036126211669767</v>
+        <v>0.04666610305711587</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>120</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1356386482.988269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3526700400.159149</v>
+        <v>3502703921.68465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2080127986220575</v>
+        <v>0.187343185781868</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03032652445977907</v>
+        <v>0.02935109123573356</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1763350311.45195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1537173361.340364</v>
+        <v>2103757924.406286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1290877254615288</v>
+        <v>0.127009187822283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03480521872725596</v>
+        <v>0.03062886432584407</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>768586771.5039217</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4742292141.638695</v>
+        <v>3621009797.795348</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1651953014335567</v>
+        <v>0.1396884126735753</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03825200279091986</v>
+        <v>0.04931337809881516</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>161</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2371146150.178853</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4021171345.825044</v>
+        <v>3918083917.390203</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1900856979559417</v>
+        <v>0.1196649636978834</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03197127652954323</v>
+        <v>0.04940434092754599</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>158</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2010585687.04828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3215683162.421106</v>
+        <v>2796211433.446215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1863055513515924</v>
+        <v>0.1660229409678487</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05038437819665423</v>
+        <v>0.05363167171266828</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1607841618.997018</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4923375266.941849</v>
+        <v>3962207906.526295</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06915397182145144</v>
+        <v>0.06240999334620998</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01914547608831157</v>
+        <v>0.02542751886106686</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>128</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2461687641.512416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3286447104.725</v>
+        <v>3154615035.455252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1648457487933035</v>
+        <v>0.1440381779059055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03346220055313559</v>
+        <v>0.0354084014642651</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>124</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1643223566.068496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1131911412.883797</v>
+        <v>1481584315.649653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07547309743886477</v>
+        <v>0.09811839095512259</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03726042742901289</v>
+        <v>0.04093313109097572</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>565955708.4932531</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1758260886.477445</v>
+        <v>2105654615.428358</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09226408848594321</v>
+        <v>0.09691849861108663</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04842235325517938</v>
+        <v>0.04592975398553245</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>77</v>
-      </c>
-      <c r="J16" t="n">
-        <v>879130540.3288032</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5010020165.24649</v>
+        <v>4136757144.124354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1122692654943103</v>
+        <v>0.1131885535161882</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03755914778703043</v>
+        <v>0.04665631391966658</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>111</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2505010067.329845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3350958949.165246</v>
+        <v>3793060456.427826</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1160373904619233</v>
+        <v>0.1383422400040526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02163805234061075</v>
+        <v>0.02169150103429379</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>125</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1675479479.446014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1309982269.418827</v>
+        <v>1066223675.39485</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1188637367067742</v>
+        <v>0.1242623177796691</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02035543703421655</v>
+        <v>0.02325859980310568</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>654991239.3885759</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2621416493.734314</v>
+        <v>2542976596.97178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1594559884199553</v>
+        <v>0.1070450135188291</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03111933509990154</v>
+        <v>0.02451369041771031</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1310708207.043709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2304694506.397546</v>
+        <v>1957560882.468778</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07932979006929324</v>
+        <v>0.09739269371829974</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02994597051686197</v>
+        <v>0.03418380317275513</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1152347260.018414</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3790886691.278201</v>
+        <v>2958544956.0302</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1442034912139937</v>
+        <v>0.09347946910120397</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04405707590849831</v>
+        <v>0.0398492960255032</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1895443359.825899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1300596009.694456</v>
+        <v>1400442421.28255</v>
       </c>
       <c r="F23" t="n">
-        <v>0.135468172285078</v>
+        <v>0.1511905929013592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04333514759143951</v>
+        <v>0.05287032941070255</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>650298024.4006426</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2783150338.010408</v>
+        <v>3420245648.136583</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1478318453314132</v>
+        <v>0.1304898358594234</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02574544823334726</v>
+        <v>0.02290142620701584</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>111</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1391575218.836883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1297188392.597199</v>
+        <v>1459290329.999136</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1100899959947692</v>
+        <v>0.09966522873757953</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0289852074120034</v>
+        <v>0.02422312378005435</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>648594191.9393657</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1153921701.027056</v>
+        <v>884998250.4511448</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08256266574372317</v>
+        <v>0.1147069446574275</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02906588198375626</v>
+        <v>0.0261516192830534</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>576960860.2665119</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3210144941.959317</v>
+        <v>3153890709.991084</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1573022511101084</v>
+        <v>0.1346434423209706</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02163755798805401</v>
+        <v>0.01906611646063943</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>89</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1605072520.364602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2757646190.206413</v>
+        <v>3228171099.862042</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1152878581247896</v>
+        <v>0.1294793998694097</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03044689976819335</v>
+        <v>0.0477197150354026</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>123</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1378823085.303617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5373568978.104346</v>
+        <v>4256562435.759481</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1091356111745986</v>
+        <v>0.110851598177747</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03054139905457173</v>
+        <v>0.03163955213147879</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>169</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2686784410.790253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2136803184.940105</v>
+        <v>1932327592.677517</v>
       </c>
       <c r="F30" t="n">
-        <v>0.118309195611693</v>
+        <v>0.09788435845001847</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03890413410397036</v>
+        <v>0.0302965386344828</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1068401645.554789</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>919024098.196034</v>
+        <v>1209001542.148524</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07721406672867359</v>
+        <v>0.09657555297842856</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04617295221922064</v>
+        <v>0.0337084843315019</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>459512066.7129493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1398047241.174458</v>
+        <v>1541875970.791878</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08605205171651566</v>
+        <v>0.07467749663774034</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03288825082744037</v>
+        <v>0.02708738216461428</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>699023667.8154943</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2241460262.429877</v>
+        <v>2487340397.829871</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1898254934057678</v>
+        <v>0.1655116986674702</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03955599986233782</v>
+        <v>0.04965234489743856</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>115</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1120730191.45609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1357380721.84247</v>
+        <v>1317295665.478935</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1015270350829615</v>
+        <v>0.09797762870654128</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01911755454240249</v>
+        <v>0.01761081865929831</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>678690340.1481109</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1306456473.195229</v>
+        <v>1088116694.18916</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1142813022478072</v>
+        <v>0.08515296192719142</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02907245990306637</v>
+        <v>0.03960536465461428</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>653228188.0095049</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2546829386.092649</v>
+        <v>2220917403.886585</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1292980213612853</v>
+        <v>0.1508629826823774</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02028527252362694</v>
+        <v>0.02462424100781465</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1273414711.295098</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2831097290.827904</v>
+        <v>1881520179.304931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0959111634241953</v>
+        <v>0.07757991123595322</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03260910215574637</v>
+        <v>0.03525538186201143</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>101</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1415548787.03538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1334547490.051055</v>
+        <v>1534123977.249675</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1212225110209123</v>
+        <v>0.08217643715467902</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02949464073205814</v>
+        <v>0.03882389785676454</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>667273817.6710017</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2070796629.211837</v>
+        <v>1706403134.997732</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1314683674402946</v>
+        <v>0.18192458540643</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03225856445719649</v>
+        <v>0.02525414339249521</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1035398298.413892</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1574714672.401009</v>
+        <v>1175014077.633588</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1044929769034409</v>
+        <v>0.1265164518447215</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04887794006421817</v>
+        <v>0.04270634430408365</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>787357283.7164308</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1935887837.934799</v>
+        <v>2290804534.356017</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1311630650221788</v>
+        <v>0.1319336897645457</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0431492670944281</v>
+        <v>0.03638600346001025</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>967943999.4454942</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3546503414.709436</v>
+        <v>3879754313.08026</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1065438510651653</v>
+        <v>0.1018542630963013</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04595711729127549</v>
+        <v>0.0351748383040086</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1773251705.449792</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2041075392.731133</v>
+        <v>2918435284.0748</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1399530732932377</v>
+        <v>0.1794618918505859</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01892145311932251</v>
+        <v>0.02406735321527945</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1020537791.203137</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1439539488.13261</v>
+        <v>1518560059.332784</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08937566242596101</v>
+        <v>0.07238714408359086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03313742198691912</v>
+        <v>0.02996268225857439</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>719769738.5933311</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2385592297.528267</v>
+        <v>1707979272.215818</v>
       </c>
       <c r="F45" t="n">
-        <v>0.170057531173871</v>
+        <v>0.1810893660997413</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03687355341511876</v>
+        <v>0.04790982045530958</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1192796178.493027</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4017235009.294171</v>
+        <v>5537726558.589298</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1496735582113492</v>
+        <v>0.1535113281238198</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04812996258806159</v>
+        <v>0.05481526473482738</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>136</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2008617475.175834</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3762357586.872615</v>
+        <v>4601533591.029737</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1864385651084836</v>
+        <v>0.1281122857436048</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05172240203915802</v>
+        <v>0.04445510679600811</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>102</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1881178779.110582</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3607404429.532594</v>
+        <v>3778949356.189228</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1100784855748611</v>
+        <v>0.06806389984947937</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02561099687688275</v>
+        <v>0.0319698800625294</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1803702271.967231</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1255460443.598</v>
+        <v>1292875331.778326</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1689577490676764</v>
+        <v>0.1766610749840862</v>
       </c>
       <c r="G49" t="n">
-        <v>0.038994460399125</v>
+        <v>0.03231924047532854</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>627730291.8417215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3753136203.853282</v>
+        <v>4015798429.019482</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1312208970993023</v>
+        <v>0.1263772968640706</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0370000985796597</v>
+        <v>0.04221889113716203</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>130</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1876568108.191912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>948385544.1040655</v>
+        <v>1525658401.39592</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1485511925327214</v>
+        <v>0.1614513912117321</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03790703562511102</v>
+        <v>0.03722137777163366</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>474192864.385752</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4623072941.764894</v>
+        <v>5057295684.826721</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1161348215610312</v>
+        <v>0.1058052068670263</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05129014326605075</v>
+        <v>0.06080016502343284</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>157</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2311536490.704095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3320444228.531135</v>
+        <v>3519942894.140756</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2018895119174563</v>
+        <v>0.1548401571475597</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02985882383577844</v>
+        <v>0.03255720246469516</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>109</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1660222124.609368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3432656345.418952</v>
+        <v>3531352918.77521</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1488650995836918</v>
+        <v>0.1074579360176512</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03978273386047351</v>
+        <v>0.04995813054962363</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>123</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1716328192.253223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4403888552.957692</v>
+        <v>3324164735.402328</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1540535045401092</v>
+        <v>0.1365002345183609</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03151643392089626</v>
+        <v>0.0324940958383584</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2201944269.206218</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1668759852.803451</v>
+        <v>1512725992.955993</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1493908271115568</v>
+        <v>0.1466574729035974</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05773612067337427</v>
+        <v>0.05144752349586777</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>834379943.6849591</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2904738011.024812</v>
+        <v>3694705000.987113</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1246058280088147</v>
+        <v>0.1673180541346291</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01710487894306234</v>
+        <v>0.02438660751596302</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>121</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1452369001.929385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1381814954.885351</v>
+        <v>1433449228.074102</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1782344424723431</v>
+        <v>0.197522676741275</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03519966366986198</v>
+        <v>0.03321194154190474</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>690907519.3770047</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3823447610.507316</v>
+        <v>5371083195.857905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09991227908538423</v>
+        <v>0.09213889133677806</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04168702184216521</v>
+        <v>0.03234910672641446</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1911723789.738388</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3173893939.446973</v>
+        <v>3160455819.039218</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1285506176078435</v>
+        <v>0.1686086533861185</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0303622491652538</v>
+        <v>0.03233276497019013</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1586947058.32457</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3256642046.707551</v>
+        <v>2406176928.418589</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1172207016741033</v>
+        <v>0.1430765793877612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03298980503709049</v>
+        <v>0.03163148743566885</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>132</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1628320979.630836</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1565419899.147411</v>
+        <v>1875732173.580302</v>
       </c>
       <c r="F62" t="n">
-        <v>0.17361400025531</v>
+        <v>0.1853977989266522</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03093245818099729</v>
+        <v>0.04377221525459316</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>782709942.4303292</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4136625760.520669</v>
+        <v>4205741107.451661</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09901188703583669</v>
+        <v>0.08246141635271804</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03877276633226046</v>
+        <v>0.04325348376010297</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>110</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2068312936.586819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5487225706.363315</v>
+        <v>4174154648.337953</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1170997101068731</v>
+        <v>0.1892631899280662</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03217362277681932</v>
+        <v>0.02189101547238418</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>119</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2743612993.663455</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5440775160.305604</v>
+        <v>5540155492.743021</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1539868454945029</v>
+        <v>0.1365969910063149</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03235378171263255</v>
+        <v>0.02731435502745534</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>137</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2720387512.776114</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3882265644.673692</v>
+        <v>4267292919.134618</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1381521831337913</v>
+        <v>0.1049976775647964</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04161482977368367</v>
+        <v>0.0503831528217055</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>112</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1941132789.597013</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2645531921.031169</v>
+        <v>3198807050.285066</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07339734327408932</v>
+        <v>0.07440204697848132</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03342772886185223</v>
+        <v>0.04963783800150363</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>123</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1322766008.825469</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5289505107.874479</v>
+        <v>5273481556.691983</v>
       </c>
       <c r="F68" t="n">
-        <v>0.14637552220886</v>
+        <v>0.115784210856386</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03333493242539997</v>
+        <v>0.05145573870223424</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>123</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2644752627.893057</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1677882484.147251</v>
+        <v>2235480245.988798</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1324622084512951</v>
+        <v>0.1208150582147021</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04301340080074274</v>
+        <v>0.05169916477960414</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>838941205.3936192</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3627544400.67417</v>
+        <v>3254772703.588737</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06736638075290877</v>
+        <v>0.09272637089377429</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04075160482835648</v>
+        <v>0.04597044938983555</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>109</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1813772218.157599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5394810190.079402</v>
+        <v>3867992673.482649</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1612536414068627</v>
+        <v>0.1664710891699495</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02682193246290435</v>
+        <v>0.02184155669794168</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>139</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2697405230.231816</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1935095642.325533</v>
+        <v>1423643675.554801</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1046186612462844</v>
+        <v>0.07192294683558863</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04378490900238</v>
+        <v>0.04569180722844086</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>967547777.9586517</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2330131256.267312</v>
+        <v>3037164392.883776</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109672462465411</v>
+        <v>0.1020486725743282</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04700283385042151</v>
+        <v>0.04168571256677924</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>145</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1165065685.482811</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2595522084.482097</v>
+        <v>3861961363.996617</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1813555385956412</v>
+        <v>0.1568879417982329</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03253561151285122</v>
+        <v>0.03527638893612817</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>130</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1297761142.618705</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2418803029.820261</v>
+        <v>2350265559.650928</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1014136193291752</v>
+        <v>0.1130241541865967</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03751622225329807</v>
+        <v>0.03406952583197422</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1209401439.9107</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3332667303.087438</v>
+        <v>4841409820.947533</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09782034225579896</v>
+        <v>0.09463640234679573</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02531537843652583</v>
+        <v>0.02968699160395109</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1666333608.265508</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1512069655.049248</v>
+        <v>1409268637.11355</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1795731453342292</v>
+        <v>0.1214869469477731</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03113878753478132</v>
+        <v>0.02325358160119949</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>756034816.9957544</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3856073528.404105</v>
+        <v>4529820455.680751</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09251101752944582</v>
+        <v>0.08931770149801245</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05251999924981662</v>
+        <v>0.04997023988191431</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>133</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1928036740.226361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1459015680.610211</v>
+        <v>1194031724.751644</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1740929531236737</v>
+        <v>0.1562260144305944</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02725938568742809</v>
+        <v>0.02797296586630901</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>729507867.3756782</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4969009269.886655</v>
+        <v>4496666796.490359</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09497920970048528</v>
+        <v>0.1000906792765421</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02722096226310472</v>
+        <v>0.03359493165984165</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2484504682.637177</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3892540307.195147</v>
+        <v>5204184776.939743</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08953370445055359</v>
+        <v>0.133705127669424</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02914719016422557</v>
+        <v>0.02041018649146429</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1946270112.814399</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5364376157.7292</v>
+        <v>3853577328.532214</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1382230801727081</v>
+        <v>0.1879036216435598</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02063686611737958</v>
+        <v>0.02751602181289589</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2682188042.490866</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2153668603.899597</v>
+        <v>2015510375.166116</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1088635935742866</v>
+        <v>0.1511492310070113</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03087823702335441</v>
+        <v>0.04155348270034993</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1076834306.401082</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1588282409.633932</v>
+        <v>2171229244.274144</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09387329989480041</v>
+        <v>0.1089463308840768</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03596471387211606</v>
+        <v>0.04830959961175135</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>794141270.1045008</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3222798440.189176</v>
+        <v>3051916707.409388</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1753181406014732</v>
+        <v>0.1779960985406738</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04556471584173832</v>
+        <v>0.04844081077365113</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>144</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1611399304.843144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2439053652.194149</v>
+        <v>2720170258.204689</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1415218364460428</v>
+        <v>0.1524554159828815</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02186050703016225</v>
+        <v>0.02206660672489544</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1219526914.788478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1485447224.089184</v>
+        <v>1387795793.868467</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1324135615595783</v>
+        <v>0.1328917200791533</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03488095474531044</v>
+        <v>0.02855187908618871</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>742723740.8174809</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3571106709.952723</v>
+        <v>3331707860.913377</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1204584191675824</v>
+        <v>0.1707428660284041</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02820796898038289</v>
+        <v>0.03829499845096553</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>151</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1785553441.889358</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3142107450.893992</v>
+        <v>2499994323.104937</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1510069267856612</v>
+        <v>0.1076047060486809</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02544782692109717</v>
+        <v>0.04080362522810897</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>130</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1571053753.145531</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2007743689.909166</v>
+        <v>1327178517.945362</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1270282118541014</v>
+        <v>0.1315586389355539</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03581076307764641</v>
+        <v>0.05578514131197133</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1003871916.602917</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1837551696.373739</v>
+        <v>1984725849.583808</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1895687108401484</v>
+        <v>0.1872734907064496</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0561885272474088</v>
+        <v>0.04084387438469018</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>918775842.1431781</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2595674158.238213</v>
+        <v>2263655938.458469</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1024310063175386</v>
+        <v>0.08188749999314548</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03143732921347676</v>
+        <v>0.04369107208540272</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1297837070.301851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3187379554.115952</v>
+        <v>4329132055.511139</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09803644083939596</v>
+        <v>0.09006446217022525</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04473508512493764</v>
+        <v>0.04416830710156106</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>112</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1593689830.235868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1531449824.186815</v>
+        <v>2092063615.603783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1438293055530842</v>
+        <v>0.1064836059130388</v>
       </c>
       <c r="G94" t="n">
-        <v>0.026810492065448</v>
+        <v>0.03698960402422478</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>765724849.4416634</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2030879857.197168</v>
+        <v>2029657045.242981</v>
       </c>
       <c r="F95" t="n">
-        <v>0.10552456836989</v>
+        <v>0.09232251033986831</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03946522848689918</v>
+        <v>0.03591601129104276</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1015439998.80824</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2004824997.653206</v>
+        <v>2304497230.247834</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1039755936529856</v>
+        <v>0.08885319126124887</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04736232713354632</v>
+        <v>0.03996178865243606</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1002412485.294018</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4056762414.910137</v>
+        <v>3479030267.400827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1093223345230598</v>
+        <v>0.1648889612941074</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01805345585203174</v>
+        <v>0.02742211158410415</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>122</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2028381268.421445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2469123952.33291</v>
+        <v>2842215518.735512</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1184559063531263</v>
+        <v>0.09930763266693246</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02861850528714924</v>
+        <v>0.02614541504832994</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>102</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1234561924.864855</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3257497186.554621</v>
+        <v>3273996576.020355</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1232192824897894</v>
+        <v>0.1300587553462006</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02562686843796499</v>
+        <v>0.03525053571205757</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1628748597.944855</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3524467676.600107</v>
+        <v>4377563594.941567</v>
       </c>
       <c r="F100" t="n">
-        <v>0.153540991232518</v>
+        <v>0.1613127498455918</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01771379140438325</v>
+        <v>0.01941026684040391</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>116</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1762233871.033767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2356864639.443983</v>
+        <v>2382317046.701655</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1415490973255456</v>
+        <v>0.1349334938366048</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05832070365818205</v>
+        <v>0.05118631522949187</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>156</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1178432323.842144</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_383.xlsx
+++ b/output/fit_clients/fit_round_383.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2197866911.050205</v>
+        <v>2129158981.422994</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09379946357079703</v>
+        <v>0.0986183580887878</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03387479513057345</v>
+        <v>0.03595518487873618</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1878307747.688716</v>
+        <v>2606300988.448219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1682620742832522</v>
+        <v>0.1673626823294636</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03099568505654487</v>
+        <v>0.03337968565060641</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3903579313.420094</v>
+        <v>5115851866.164594</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1483079848287654</v>
+        <v>0.1050165573981769</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03788869340327936</v>
+        <v>0.02914493990276049</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2863739181.364616</v>
+        <v>3874180843.901083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08185180480552355</v>
+        <v>0.1079774534463147</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03522886191856838</v>
+        <v>0.04672998911687869</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2201122441.590717</v>
+        <v>2656371135.292639</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1382854016271199</v>
+        <v>0.09427946000917785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04453708835388853</v>
+        <v>0.04049108226452949</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2148379922.108489</v>
+        <v>2109529131.774647</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07846106182364959</v>
+        <v>0.09445835990105474</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04666610305711587</v>
+        <v>0.03550400686647327</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3502703921.68465</v>
+        <v>3560722017.975383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.187343185781868</v>
+        <v>0.2011104852418613</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02935109123573356</v>
+        <v>0.0246776508834224</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2103757924.406286</v>
+        <v>2064406891.776616</v>
       </c>
       <c r="F9" t="n">
-        <v>0.127009187822283</v>
+        <v>0.1610712587217226</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03062886432584407</v>
+        <v>0.02559923443951468</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3621009797.795348</v>
+        <v>5312579201.707799</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1396884126735753</v>
+        <v>0.1627700988279886</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04931337809881516</v>
+        <v>0.03638900021845896</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3918083917.390203</v>
+        <v>3733935286.474158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1196649636978834</v>
+        <v>0.1427823942369343</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04940434092754599</v>
+        <v>0.03435846435690987</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2796211433.446215</v>
+        <v>2148892544.658111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1660229409678487</v>
+        <v>0.1332782594179276</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05363167171266828</v>
+        <v>0.05081303956167536</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3962207906.526295</v>
+        <v>3951709982.406743</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06240999334620998</v>
+        <v>0.0776472357741564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02542751886106686</v>
+        <v>0.02446602459524748</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3154615035.455252</v>
+        <v>2388516451.006625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1440381779059055</v>
+        <v>0.1291999498366591</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0354084014642651</v>
+        <v>0.03358482664824856</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1481584315.649653</v>
+        <v>1778812278.819655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09811839095512259</v>
+        <v>0.0868007223013728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04093313109097572</v>
+        <v>0.03941589341089213</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2105654615.428358</v>
+        <v>2842341101.357755</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09691849861108663</v>
+        <v>0.09988877802167573</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04592975398553245</v>
+        <v>0.03927697126717543</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4136757144.124354</v>
+        <v>3663806382.34387</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1131885535161882</v>
+        <v>0.1627934747211149</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04665631391966658</v>
+        <v>0.04740254514533886</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3793060456.427826</v>
+        <v>3866559383.91924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1383422400040526</v>
+        <v>0.1233759008091257</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02169150103429379</v>
+        <v>0.02920609954588793</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1066223675.39485</v>
+        <v>1353292228.918449</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1242623177796691</v>
+        <v>0.1155889287577468</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02325859980310568</v>
+        <v>0.01671451700669088</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2542976596.97178</v>
+        <v>1876656539.451004</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1070450135188291</v>
+        <v>0.1525325837280343</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02451369041771031</v>
+        <v>0.02343279917018799</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1957560882.468778</v>
+        <v>2370076012.720963</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09739269371829974</v>
+        <v>0.06931857908560549</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03418380317275513</v>
+        <v>0.04576799578018228</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2958544956.0302</v>
+        <v>3039683369.091135</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09347946910120397</v>
+        <v>0.09999879433084642</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0398492960255032</v>
+        <v>0.04623470988472859</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1400442421.28255</v>
+        <v>1029235015.349584</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1511905929013592</v>
+        <v>0.168129712568518</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05287032941070255</v>
+        <v>0.05479843054439393</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3420245648.136583</v>
+        <v>4013010696.801999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1304898358594234</v>
+        <v>0.1312267368824143</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02290142620701584</v>
+        <v>0.02556505770701084</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1459290329.999136</v>
+        <v>1299136634.344362</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09966522873757953</v>
+        <v>0.1168984748485037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02422312378005435</v>
+        <v>0.01996798962983649</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>884998250.4511448</v>
+        <v>1404928711.35496</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1147069446574275</v>
+        <v>0.1026437855236206</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0261516192830534</v>
+        <v>0.02408001338059632</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3153890709.991084</v>
+        <v>3638129155.721385</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1346434423209706</v>
+        <v>0.1037882218282698</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01906611646063943</v>
+        <v>0.02411676924547954</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3228171099.862042</v>
+        <v>2434230536.092434</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1294793998694097</v>
+        <v>0.09148607376499449</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0477197150354026</v>
+        <v>0.03751379148301715</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4256562435.759481</v>
+        <v>5290517653.765075</v>
       </c>
       <c r="F29" t="n">
-        <v>0.110851598177747</v>
+        <v>0.1341621596692934</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03163955213147879</v>
+        <v>0.04192840086622921</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1932327592.677517</v>
+        <v>2009264900.664243</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09788435845001847</v>
+        <v>0.1159081556740999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0302965386344828</v>
+        <v>0.03417745247262321</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1209001542.148524</v>
+        <v>1445296570.183919</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09657555297842856</v>
+        <v>0.09286175433836275</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0337084843315019</v>
+        <v>0.0484489297755062</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1541875970.791878</v>
+        <v>1419433976.16462</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07467749663774034</v>
+        <v>0.09292647387288604</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02708738216461428</v>
+        <v>0.03299907122974768</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2487340397.829871</v>
+        <v>2943620208.996153</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1655116986674702</v>
+        <v>0.1643778598199789</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04965234489743856</v>
+        <v>0.04879041087232323</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1317295665.478935</v>
+        <v>1216300194.145575</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09797762870654128</v>
+        <v>0.1034611952804453</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01761081865929831</v>
+        <v>0.01772160566894463</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1088116694.18916</v>
+        <v>942677056.5755265</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08515296192719142</v>
+        <v>0.08974311407296598</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03960536465461428</v>
+        <v>0.04025595924026619</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2220917403.886585</v>
+        <v>2822817511.297126</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1508629826823774</v>
+        <v>0.1227119925299905</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02462424100781465</v>
+        <v>0.02169873637948363</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1881520179.304931</v>
+        <v>2442973763.409749</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07757991123595322</v>
+        <v>0.09195623581886479</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03525538186201143</v>
+        <v>0.03548998819737993</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1534123977.249675</v>
+        <v>1699208204.59973</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08217643715467902</v>
+        <v>0.1222684713488805</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03882389785676454</v>
+        <v>0.02923210304129327</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1706403134.997732</v>
+        <v>1784586569.860397</v>
       </c>
       <c r="F39" t="n">
-        <v>0.18192458540643</v>
+        <v>0.172852283361426</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02525414339249521</v>
+        <v>0.02550125438382259</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1175014077.633588</v>
+        <v>1312425264.980527</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1265164518447215</v>
+        <v>0.1104468260764642</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04270634430408365</v>
+        <v>0.03898383601081776</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2290804534.356017</v>
+        <v>2634545912.282846</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1319336897645457</v>
+        <v>0.1582336045337999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03638600346001025</v>
+        <v>0.03139704674981948</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3879754313.08026</v>
+        <v>4076515824.099254</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1018542630963013</v>
+        <v>0.09435814149793657</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0351748383040086</v>
+        <v>0.0455393227223892</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2918435284.0748</v>
+        <v>2895229489.720855</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1794618918505859</v>
+        <v>0.1653255663878285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02406735321527945</v>
+        <v>0.0156368070489528</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1518560059.332784</v>
+        <v>2173045055.991101</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07238714408359086</v>
+        <v>0.06324882619707617</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02996268225857439</v>
+        <v>0.03673940427236717</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1707979272.215818</v>
+        <v>1877094737.201092</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1810893660997413</v>
+        <v>0.1881058854706829</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04790982045530958</v>
+        <v>0.03731675539617074</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5537726558.589298</v>
+        <v>4855785791.55391</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1535113281238198</v>
+        <v>0.1102592161109278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05481526473482738</v>
+        <v>0.03786753731074227</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4601533591.029737</v>
+        <v>4858328095.434693</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1281122857436048</v>
+        <v>0.1362484417602474</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04445510679600811</v>
+        <v>0.05341626084669875</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3778949356.189228</v>
+        <v>4371201869.510593</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06806389984947937</v>
+        <v>0.07726822821810984</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0319698800625294</v>
+        <v>0.03141976315038868</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1292875331.778326</v>
+        <v>1450428987.729289</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1766610749840862</v>
+        <v>0.1817782565258698</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03231924047532854</v>
+        <v>0.03103448816041062</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4015798429.019482</v>
+        <v>3823151946.238797</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1263772968640706</v>
+        <v>0.1399217521226024</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04221889113716203</v>
+        <v>0.033161020279183</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1525658401.39592</v>
+        <v>1320481027.748562</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1614513912117321</v>
+        <v>0.1448227848971751</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03722137777163366</v>
+        <v>0.03628210041942517</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5057295684.826721</v>
+        <v>3889615681.955545</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1058052068670263</v>
+        <v>0.1370307883838413</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06080016502343284</v>
+        <v>0.05396729716268606</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3519942894.140756</v>
+        <v>3702799559.671116</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1548401571475597</v>
+        <v>0.1312930135695325</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03255720246469516</v>
+        <v>0.02617205625836455</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3531352918.77521</v>
+        <v>4917744159.894458</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1074579360176512</v>
+        <v>0.1661381617621457</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04995813054962363</v>
+        <v>0.04878292885552173</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3324164735.402328</v>
+        <v>3053117762.370259</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1365002345183609</v>
+        <v>0.1730800907164171</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0324940958383584</v>
+        <v>0.02447965826123977</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1512725992.955993</v>
+        <v>1514534525.001998</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1466574729035974</v>
+        <v>0.1065011887326911</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05144752349586777</v>
+        <v>0.04378751350470251</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3694705000.987113</v>
+        <v>2762987631.572206</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1673180541346291</v>
+        <v>0.1268002740717776</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02438660751596302</v>
+        <v>0.02218366023546455</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1433449228.074102</v>
+        <v>1520974901.044654</v>
       </c>
       <c r="F58" t="n">
-        <v>0.197522676741275</v>
+        <v>0.1287205302216593</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03321194154190474</v>
+        <v>0.02666210061459073</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5371083195.857905</v>
+        <v>5257027454.39511</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09213889133677806</v>
+        <v>0.08084893124538883</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03234910672641446</v>
+        <v>0.04741437840873038</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3160455819.039218</v>
+        <v>2371152379.586891</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1686086533861185</v>
+        <v>0.1834052018875907</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03233276497019013</v>
+        <v>0.02173414284289984</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2406176928.418589</v>
+        <v>3270266992.33035</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1430765793877612</v>
+        <v>0.170818450071263</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03163148743566885</v>
+        <v>0.03086199889604014</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1875732173.580302</v>
+        <v>1589847345.912434</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1853977989266522</v>
+        <v>0.1558797352634611</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04377221525459316</v>
+        <v>0.04989545852017575</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4205741107.451661</v>
+        <v>3783808357.306573</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08246141635271804</v>
+        <v>0.07091830149333045</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04325348376010297</v>
+        <v>0.04215475755101974</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4174154648.337953</v>
+        <v>3566910106.601182</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1892631899280662</v>
+        <v>0.1561172871473035</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02189101547238418</v>
+        <v>0.02986999703748778</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5540155492.743021</v>
+        <v>4285377073.634987</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1365969910063149</v>
+        <v>0.1614457795219092</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02731435502745534</v>
+        <v>0.02452720537594489</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4267292919.134618</v>
+        <v>4369020128.87828</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1049976775647964</v>
+        <v>0.1303295486566848</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0503831528217055</v>
+        <v>0.04061914695995651</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3198807050.285066</v>
+        <v>3001794904.16355</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07440204697848132</v>
+        <v>0.07363310595468453</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04963783800150363</v>
+        <v>0.03661654363128138</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5273481556.691983</v>
+        <v>5061921741.004866</v>
       </c>
       <c r="F68" t="n">
-        <v>0.115784210856386</v>
+        <v>0.1144193056804364</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05145573870223424</v>
+        <v>0.03532876166074192</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2235480245.988798</v>
+        <v>2152829439.230844</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1208150582147021</v>
+        <v>0.1115498640849628</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05169916477960414</v>
+        <v>0.0515682923843284</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3254772703.588737</v>
+        <v>3092234658.618825</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09272637089377429</v>
+        <v>0.07194591238525984</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04597044938983555</v>
+        <v>0.0386180584172223</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3867992673.482649</v>
+        <v>4794688761.268311</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1664710891699495</v>
+        <v>0.1677125891139463</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02184155669794168</v>
+        <v>0.03197709207908996</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1423643675.554801</v>
+        <v>2264360634.084813</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07192294683558863</v>
+        <v>0.07292453534489268</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04569180722844086</v>
+        <v>0.0453675835670112</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3037164392.883776</v>
+        <v>3323269883.578122</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1020486725743282</v>
+        <v>0.1022734972979784</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04168571256677924</v>
+        <v>0.04546801045419881</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3861961363.996617</v>
+        <v>3016103938.644255</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1568879417982329</v>
+        <v>0.1811765870452136</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03527638893612817</v>
+        <v>0.02895453072144053</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2350265559.650928</v>
+        <v>1889554738.467966</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1130241541865967</v>
+        <v>0.1590261357799937</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03406952583197422</v>
+        <v>0.03598304440311684</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4841409820.947533</v>
+        <v>5260694275.160839</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09463640234679573</v>
+        <v>0.08083313925401013</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02968699160395109</v>
+        <v>0.02644179958461076</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1409268637.11355</v>
+        <v>2229788363.068273</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1214869469477731</v>
+        <v>0.1631598110475726</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02325358160119949</v>
+        <v>0.0203566255714589</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4529820455.680751</v>
+        <v>3458027160.511834</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08931770149801245</v>
+        <v>0.1036431865624396</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04997023988191431</v>
+        <v>0.04898632616977103</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1194031724.751644</v>
+        <v>1522439559.468863</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1562260144305944</v>
+        <v>0.1774738247420048</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02797296586630901</v>
+        <v>0.02690837475813341</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4496666796.490359</v>
+        <v>5201162977.174855</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1000906792765421</v>
+        <v>0.07095851205029108</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03359493165984165</v>
+        <v>0.0298399259818462</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5204184776.939743</v>
+        <v>4977015680.084136</v>
       </c>
       <c r="F81" t="n">
-        <v>0.133705127669424</v>
+        <v>0.09615234625028372</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02041018649146429</v>
+        <v>0.03230365546989909</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3853577328.532214</v>
+        <v>4915951391.935314</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1879036216435598</v>
+        <v>0.1637141033102191</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02751602181289589</v>
+        <v>0.02493057025548778</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2015510375.166116</v>
+        <v>2061083493.384874</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1511492310070113</v>
+        <v>0.1367786526577847</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04155348270034993</v>
+        <v>0.03486218490732405</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2171229244.274144</v>
+        <v>2427868466.717873</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1089463308840768</v>
+        <v>0.09514944351426484</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04830959961175135</v>
+        <v>0.04966444697983841</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3051916707.409388</v>
+        <v>3461523022.33229</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1779960985406738</v>
+        <v>0.1720371352307964</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04844081077365113</v>
+        <v>0.03694559298674934</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2720170258.204689</v>
+        <v>2326574453.743365</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1524554159828815</v>
+        <v>0.1555363019355473</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02206660672489544</v>
+        <v>0.02349582307991348</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1387795793.868467</v>
+        <v>1280856477.386493</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1328917200791533</v>
+        <v>0.1622973678018239</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02855187908618871</v>
+        <v>0.03884202319428135</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3331707860.913377</v>
+        <v>2344677517.209396</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1707428660284041</v>
+        <v>0.1447773956009699</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03829499845096553</v>
+        <v>0.03726497741931829</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2499994323.104937</v>
+        <v>3158465403.858997</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1076047060486809</v>
+        <v>0.1217164832369127</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04080362522810897</v>
+        <v>0.03798202372176286</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1327178517.945362</v>
+        <v>1902112449.767383</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1315586389355539</v>
+        <v>0.1318651882373189</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05578514131197133</v>
+        <v>0.05431442997762877</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1984725849.583808</v>
+        <v>1841986387.839115</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1872734907064496</v>
+        <v>0.1819735273607224</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04084387438469018</v>
+        <v>0.05147464736828035</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2263655938.458469</v>
+        <v>2371610567.050825</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08188749999314548</v>
+        <v>0.1018079471884654</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04369107208540272</v>
+        <v>0.03102494316559692</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4329132055.511139</v>
+        <v>4957304768.76419</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09006446217022525</v>
+        <v>0.1250148969070177</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04416830710156106</v>
+        <v>0.04889154705868913</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2092063615.603783</v>
+        <v>1856346996.522842</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1064836059130388</v>
+        <v>0.156531431332898</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03698960402422478</v>
+        <v>0.04100265540009937</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2029657045.242981</v>
+        <v>2582781811.883624</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09232251033986831</v>
+        <v>0.1069479984922486</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03591601129104276</v>
+        <v>0.03555125382747964</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2304497230.247834</v>
+        <v>2169535389.710959</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08885319126124887</v>
+        <v>0.0905106622550195</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03996178865243606</v>
+        <v>0.04160884220039211</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3479030267.400827</v>
+        <v>3333583627.266278</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1648889612941074</v>
+        <v>0.1076256693675346</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02742211158410415</v>
+        <v>0.02125945561520658</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2842215518.735512</v>
+        <v>3664179052.044936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09930763266693246</v>
+        <v>0.1085279499301443</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02614541504832994</v>
+        <v>0.02833774105540583</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3273996576.020355</v>
+        <v>3058111520.329051</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1300587553462006</v>
+        <v>0.1034442889059129</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03525053571205757</v>
+        <v>0.02267220654895801</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4377563594.941567</v>
+        <v>3538769073.60345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1613127498455918</v>
+        <v>0.1366560363085514</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01941026684040391</v>
+        <v>0.01784562489198508</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2382317046.701655</v>
+        <v>3067891829.198629</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1349334938366048</v>
+        <v>0.1844838871640248</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05118631522949187</v>
+        <v>0.04516459980903694</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_383.xlsx
+++ b/output/fit_clients/fit_round_383.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2129158981.422994</v>
+        <v>2318209483.949345</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0986183580887878</v>
+        <v>0.08564412535336727</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03595518487873618</v>
+        <v>0.02985114231328077</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2606300988.448219</v>
+        <v>1801163103.523392</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1673626823294636</v>
+        <v>0.1591325321499485</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03337968565060641</v>
+        <v>0.0473309531726354</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5115851866.164594</v>
+        <v>3721180751.200836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1050165573981769</v>
+        <v>0.1255706842686055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02914493990276049</v>
+        <v>0.03092670978072043</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>196</v>
+      </c>
+      <c r="J4" t="n">
+        <v>382</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.26175473290705</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3874180843.901083</v>
+        <v>3668145369.534873</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1079774534463147</v>
+        <v>0.07668710642409836</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04672998911687869</v>
+        <v>0.03870799047675554</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>154</v>
+      </c>
+      <c r="J5" t="n">
+        <v>383</v>
+      </c>
+      <c r="K5" t="n">
+        <v>59.41678377979215</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2656371135.292639</v>
+        <v>2463231070.14822</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09427946000917785</v>
+        <v>0.1468610921620671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04049108226452949</v>
+        <v>0.03422259785690106</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2109529131.774647</v>
+        <v>1903565119.134299</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09445835990105474</v>
+        <v>0.1006608011114622</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03550400686647327</v>
+        <v>0.0401405814650598</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3560722017.975383</v>
+        <v>3085448786.212628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2011104852418613</v>
+        <v>0.1537412473663381</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0246776508834224</v>
+        <v>0.02705927838165</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>103</v>
+      </c>
+      <c r="J8" t="n">
+        <v>382</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.50048783206213</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2064406891.776616</v>
+        <v>1552908141.298104</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1610712587217226</v>
+        <v>0.1816200740842892</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02559923443951468</v>
+        <v>0.0293556777207458</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5312579201.707799</v>
+        <v>5278246087.591748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627700988279886</v>
+        <v>0.1317103877896446</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03638900021845896</v>
+        <v>0.03458359449830513</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>313</v>
+      </c>
+      <c r="J10" t="n">
+        <v>383</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3733935286.474158</v>
+        <v>3775024454.979823</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1427823942369343</v>
+        <v>0.1752832418963985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03435846435690987</v>
+        <v>0.03793183615783158</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>160</v>
+      </c>
+      <c r="J11" t="n">
+        <v>383</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2148892544.658111</v>
+        <v>3244538758.518126</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1332782594179276</v>
+        <v>0.148515693400999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05081303956167536</v>
+        <v>0.03600670284723999</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3951709982.406743</v>
+        <v>4377529626.465985</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0776472357741564</v>
+        <v>0.07680728281275226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02446602459524748</v>
+        <v>0.02506527312096126</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>198</v>
+      </c>
+      <c r="J13" t="n">
+        <v>383</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2388516451.006625</v>
+        <v>2398185066.66253</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1291999498366591</v>
+        <v>0.1312566819070369</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03358482664824856</v>
+        <v>0.03575325028775943</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>79</v>
+      </c>
+      <c r="J14" t="n">
+        <v>381</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1778812278.819655</v>
+        <v>1125297847.015273</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0868007223013728</v>
+        <v>0.07052067720116559</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03941589341089213</v>
+        <v>0.02983436010668899</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2842341101.357755</v>
+        <v>1909228538.250478</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09988877802167573</v>
+        <v>0.08687886526606906</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03927697126717543</v>
+        <v>0.03389824296134708</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3663806382.34387</v>
+        <v>4323017375.15342</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1627934747211149</v>
+        <v>0.1427108524730872</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04740254514533886</v>
+        <v>0.03221053213759953</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>183</v>
+      </c>
+      <c r="J17" t="n">
+        <v>382</v>
+      </c>
+      <c r="K17" t="n">
+        <v>52.63175831522126</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3866559383.91924</v>
+        <v>3674052148.857837</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1233759008091257</v>
+        <v>0.1516603821533112</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02920609954588793</v>
+        <v>0.0280000802391493</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1353292228.918449</v>
+        <v>965187949.867739</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1155889287577468</v>
+        <v>0.1257221655971789</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01671451700669088</v>
+        <v>0.01773361171865682</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1876656539.451004</v>
+        <v>1879816034.949334</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1525325837280343</v>
+        <v>0.1286755759252968</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02343279917018799</v>
+        <v>0.02854755302928641</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2370076012.720963</v>
+        <v>1955911870.594026</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06931857908560549</v>
+        <v>0.06466226499460111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04576799578018228</v>
+        <v>0.04377682694045446</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3039683369.091135</v>
+        <v>3651592924.918823</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09999879433084642</v>
+        <v>0.1189316735948429</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04623470988472859</v>
+        <v>0.04830785384703048</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1029235015.349584</v>
+        <v>1448956533.834341</v>
       </c>
       <c r="F23" t="n">
-        <v>0.168129712568518</v>
+        <v>0.1266302716813558</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05479843054439393</v>
+        <v>0.03865587420212414</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4013010696.801999</v>
+        <v>2543993145.854073</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1312267368824143</v>
+        <v>0.1468636132261274</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02556505770701084</v>
+        <v>0.03388663190626236</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1299136634.344362</v>
+        <v>918105382.8822876</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1168984748485037</v>
+        <v>0.09726149069929828</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01996798962983649</v>
+        <v>0.02292195611176183</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1404928711.35496</v>
+        <v>983209478.8005085</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1026437855236206</v>
+        <v>0.08108885454628825</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02408001338059632</v>
+        <v>0.02526407753138041</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3638129155.721385</v>
+        <v>3900459820.131802</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1037882218282698</v>
+        <v>0.1032701400292445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02411676924547954</v>
+        <v>0.02050131367625622</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>159</v>
+      </c>
+      <c r="J27" t="n">
+        <v>383</v>
+      </c>
+      <c r="K27" t="n">
+        <v>57.84714239820402</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2434230536.092434</v>
+        <v>3267054695.820807</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09148607376499449</v>
+        <v>0.1222260403730096</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03751379148301715</v>
+        <v>0.03888057878171119</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>377</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5290517653.765075</v>
+        <v>5869495940.115747</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1341621596692934</v>
+        <v>0.1320662441518425</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04192840086622921</v>
+        <v>0.0419274636032089</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>330</v>
+      </c>
+      <c r="J29" t="n">
+        <v>382</v>
+      </c>
+      <c r="K29" t="n">
+        <v>52.47662955001881</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2009264900.664243</v>
+        <v>1749412370.874473</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1159081556740999</v>
+        <v>0.1228558300941592</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03417745247262321</v>
+        <v>0.02497445313075708</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1445296570.183919</v>
+        <v>1290343498.208504</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09286175433836275</v>
+        <v>0.07506542099045753</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0484489297755062</v>
+        <v>0.03556784731026463</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1419433976.16462</v>
+        <v>1434064307.916856</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09292647387288604</v>
+        <v>0.1094422357611181</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03299907122974768</v>
+        <v>0.02937258918370836</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2943620208.996153</v>
+        <v>2786655833.783896</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643778598199789</v>
+        <v>0.1378248171702531</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04879041087232323</v>
+        <v>0.04547808599150803</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1216300194.145575</v>
+        <v>1016748397.996446</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1034611952804453</v>
+        <v>0.1112163716848949</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01772160566894463</v>
+        <v>0.02650013100088203</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>942677056.5755265</v>
+        <v>876650081.569521</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08974311407296598</v>
+        <v>0.1095126518564893</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04025595924026619</v>
+        <v>0.03993210180513135</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2822817511.297126</v>
+        <v>2821518067.972369</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1227119925299905</v>
+        <v>0.1647881207168253</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02169873637948363</v>
+        <v>0.02505426988265031</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2442973763.409749</v>
+        <v>2883770234.154116</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09195623581886479</v>
+        <v>0.09920631102606069</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03548998819737993</v>
+        <v>0.03448273057195896</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699208204.59973</v>
+        <v>1955107011.223835</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1222684713488805</v>
+        <v>0.1191530861985447</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02923210304129327</v>
+        <v>0.02426332013634955</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1784586569.860397</v>
+        <v>1940164672.658297</v>
       </c>
       <c r="F39" t="n">
-        <v>0.172852283361426</v>
+        <v>0.1832523948247589</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02550125438382259</v>
+        <v>0.03265251488243786</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1312425264.980527</v>
+        <v>1790322831.042944</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1104468260764642</v>
+        <v>0.1409719746101986</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03898383601081776</v>
+        <v>0.05586765559236934</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2634545912.282846</v>
+        <v>2082958868.161277</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1582336045337999</v>
+        <v>0.1527239049939684</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03139704674981948</v>
+        <v>0.03472517698979472</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4076515824.099254</v>
+        <v>3617303614.435623</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09435814149793657</v>
+        <v>0.1195874911482158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0455393227223892</v>
+        <v>0.04480727221909429</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>168</v>
+      </c>
+      <c r="J42" t="n">
+        <v>382</v>
+      </c>
+      <c r="K42" t="n">
+        <v>52.52030050589089</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2895229489.720855</v>
+        <v>2830813013.806017</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1653255663878285</v>
+        <v>0.1924009758343309</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0156368070489528</v>
+        <v>0.01866558875555257</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2173045055.991101</v>
+        <v>2332192637.219337</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06324882619707617</v>
+        <v>0.07991258170182948</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03673940427236717</v>
+        <v>0.02716524401883603</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1877094737.201092</v>
+        <v>1694896824.063627</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1881058854706829</v>
+        <v>0.195006297365635</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03731675539617074</v>
+        <v>0.0470389359754134</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4855785791.55391</v>
+        <v>4212155315.078133</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1102592161109278</v>
+        <v>0.1320793643302906</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03786753731074227</v>
+        <v>0.05191168357480039</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>229</v>
+      </c>
+      <c r="J46" t="n">
+        <v>383</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4858328095.434693</v>
+        <v>3816376335.674857</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1362484417602474</v>
+        <v>0.1963131161340927</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05341626084669875</v>
+        <v>0.05135378945695639</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>171</v>
+      </c>
+      <c r="J47" t="n">
+        <v>383</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4371201869.510593</v>
+        <v>4367246144.90498</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07726822821810984</v>
+        <v>0.08209876671318642</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03141976315038868</v>
+        <v>0.03759854633503319</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>198</v>
+      </c>
+      <c r="J48" t="n">
+        <v>383</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1450428987.729289</v>
+        <v>1469816237.309528</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1817782565258698</v>
+        <v>0.1585175456001628</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03103448816041062</v>
+        <v>0.04353857796377415</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3823151946.238797</v>
+        <v>3024608219.961014</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1399217521226024</v>
+        <v>0.1196806496945268</v>
       </c>
       <c r="G50" t="n">
-        <v>0.033161020279183</v>
+        <v>0.03453647829725454</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>132</v>
+      </c>
+      <c r="J50" t="n">
+        <v>382</v>
+      </c>
+      <c r="K50" t="n">
+        <v>35.23604984819762</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1320481027.748562</v>
+        <v>1112820301.655765</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1448227848971751</v>
+        <v>0.1800348451725441</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03628210041942517</v>
+        <v>0.05139126312407109</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3889615681.955545</v>
+        <v>3678103859.439582</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1370307883838413</v>
+        <v>0.1004325307158601</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05396729716268606</v>
+        <v>0.06129288934399972</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>224</v>
+      </c>
+      <c r="J52" t="n">
+        <v>383</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3702799559.671116</v>
+        <v>3429643115.201355</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1312930135695325</v>
+        <v>0.1588767725598835</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02617205625836455</v>
+        <v>0.02467638249151109</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4917744159.894458</v>
+        <v>3691597328.986478</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1661381617621457</v>
+        <v>0.1485366744562515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04878292885552173</v>
+        <v>0.03377207512249097</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>204</v>
+      </c>
+      <c r="J54" t="n">
+        <v>382</v>
+      </c>
+      <c r="K54" t="n">
+        <v>48.73449816235997</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3053117762.370259</v>
+        <v>3815015002.213752</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1730800907164171</v>
+        <v>0.1908372833772332</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02447965826123977</v>
+        <v>0.02202468624211444</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>184</v>
+      </c>
+      <c r="J55" t="n">
+        <v>383</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1514534525.001998</v>
+        <v>1243708566.505242</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1065011887326911</v>
+        <v>0.1352940294489497</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04378751350470251</v>
+        <v>0.03715799174218006</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2762987631.572206</v>
+        <v>3770510545.136621</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1268002740717776</v>
+        <v>0.1419107520246915</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02218366023546455</v>
+        <v>0.01683804041251406</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>162</v>
+      </c>
+      <c r="J57" t="n">
+        <v>383</v>
+      </c>
+      <c r="K57" t="n">
+        <v>53.0815339097527</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1520974901.044654</v>
+        <v>1323502712.635415</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1287205302216593</v>
+        <v>0.1418083327035289</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02666210061459073</v>
+        <v>0.03176946376917367</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5257027454.39511</v>
+        <v>4182079968.016099</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08084893124538883</v>
+        <v>0.09316295004656762</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04741437840873038</v>
+        <v>0.04021299037748576</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>186</v>
+      </c>
+      <c r="J59" t="n">
+        <v>382</v>
+      </c>
+      <c r="K59" t="n">
+        <v>52.28786363618219</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2371152379.586891</v>
+        <v>3021363701.085533</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1834052018875907</v>
+        <v>0.1364003962021399</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02173414284289984</v>
+        <v>0.02104352147298021</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3270266992.33035</v>
+        <v>2290209933.062531</v>
       </c>
       <c r="F61" t="n">
-        <v>0.170818450071263</v>
+        <v>0.1628212029739889</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03086199889604014</v>
+        <v>0.02356367514153304</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>362</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1589847345.912434</v>
+        <v>1283177098.159887</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1558797352634611</v>
+        <v>0.1948957021923173</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04989545852017575</v>
+        <v>0.03219971159958639</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3783808357.306573</v>
+        <v>4841476631.307314</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07091830149333045</v>
+        <v>0.1027832629491308</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04215475755101974</v>
+        <v>0.03501133745290182</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>190</v>
+      </c>
+      <c r="J63" t="n">
+        <v>382</v>
+      </c>
+      <c r="K63" t="n">
+        <v>52.06897991300793</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3566910106.601182</v>
+        <v>3556325975.465219</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1561172871473035</v>
+        <v>0.1887901536334816</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02986999703748778</v>
+        <v>0.02689602760074081</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>190</v>
+      </c>
+      <c r="J64" t="n">
+        <v>381</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4285377073.634987</v>
+        <v>4544704461.396482</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1614457795219092</v>
+        <v>0.1390963405953398</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02452720537594489</v>
+        <v>0.02015282844346227</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>287</v>
+      </c>
+      <c r="J65" t="n">
+        <v>382</v>
+      </c>
+      <c r="K65" t="n">
+        <v>52.18789515816486</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4369020128.87828</v>
+        <v>4937065739.085446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1303295486566848</v>
+        <v>0.1455049061702327</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04061914695995651</v>
+        <v>0.04695128422340377</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>189</v>
+      </c>
+      <c r="J66" t="n">
+        <v>383</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3001794904.16355</v>
+        <v>2452268959.831603</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07363310595468453</v>
+        <v>0.1007592792592449</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03661654363128138</v>
+        <v>0.04155575287249561</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5061921741.004866</v>
+        <v>4301395661.673936</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1144193056804364</v>
+        <v>0.1045689467968934</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03532876166074192</v>
+        <v>0.03539643116621661</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>207</v>
+      </c>
+      <c r="J68" t="n">
+        <v>383</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2152829439.230844</v>
+        <v>2086878891.207657</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1115498640849628</v>
+        <v>0.1657858417433408</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0515682923843284</v>
+        <v>0.05797171405512788</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3092234658.618825</v>
+        <v>3503208038.619148</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07194591238525984</v>
+        <v>0.08770514112376465</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0386180584172223</v>
+        <v>0.034079317895272</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4794688761.268311</v>
+        <v>4626941970.263636</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1677125891139463</v>
+        <v>0.1150496530531603</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03197709207908996</v>
+        <v>0.0241377486696464</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>273</v>
+      </c>
+      <c r="J71" t="n">
+        <v>382</v>
+      </c>
+      <c r="K71" t="n">
+        <v>52.02416637050187</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2264360634.084813</v>
+        <v>1641012861.955384</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07292453534489268</v>
+        <v>0.1015263363142366</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0453675835670112</v>
+        <v>0.0517241007343614</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3323269883.578122</v>
+        <v>2671505794.091987</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1022734972979784</v>
+        <v>0.08422531756020223</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04546801045419881</v>
+        <v>0.04693135622287721</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="n">
+        <v>42.07238968955492</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3016103938.644255</v>
+        <v>3752627636.95529</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1811765870452136</v>
+        <v>0.1401177778244986</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02895453072144053</v>
+        <v>0.02531379992103816</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>110</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1889554738.467966</v>
+        <v>2366416230.954936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1590261357799937</v>
+        <v>0.1314936040040608</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03598304440311684</v>
+        <v>0.03347815710639401</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5260694275.160839</v>
+        <v>3403759578.669372</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08083313925401013</v>
+        <v>0.08498478813665018</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02644179958461076</v>
+        <v>0.03362645192695004</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>181</v>
+      </c>
+      <c r="J76" t="n">
+        <v>382</v>
+      </c>
+      <c r="K76" t="n">
+        <v>39.98737860560414</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2229788363.068273</v>
+        <v>1679903998.647874</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1631598110475726</v>
+        <v>0.1476742969585858</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0203566255714589</v>
+        <v>0.02706938413037348</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3458027160.511834</v>
+        <v>4559793524.2932</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1036431865624396</v>
+        <v>0.09520423999134493</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04898632616977103</v>
+        <v>0.03918184164164661</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>191</v>
+      </c>
+      <c r="J78" t="n">
+        <v>383</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1522439559.468863</v>
+        <v>1373672089.201478</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1774738247420048</v>
+        <v>0.1323413624025904</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02690837475813341</v>
+        <v>0.02841762294195255</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5201162977.174855</v>
+        <v>4762094210.819787</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07095851205029108</v>
+        <v>0.07281844773104516</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0298399259818462</v>
+        <v>0.02496698092980052</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>187</v>
+      </c>
+      <c r="J80" t="n">
+        <v>382</v>
+      </c>
+      <c r="K80" t="n">
+        <v>42.45722428997241</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4977015680.084136</v>
+        <v>4305604438.285184</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09615234625028372</v>
+        <v>0.09866354860891091</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03230365546989909</v>
+        <v>0.02239629047939432</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>178</v>
+      </c>
+      <c r="J81" t="n">
+        <v>382</v>
+      </c>
+      <c r="K81" t="n">
+        <v>50.74322166304195</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4915951391.935314</v>
+        <v>3764136713.424181</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1637141033102191</v>
+        <v>0.1772200855429727</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02493057025548778</v>
+        <v>0.02733387026970639</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>264</v>
+      </c>
+      <c r="J82" t="n">
+        <v>383</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2061083493.384874</v>
+        <v>2235230470.831118</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1367786526577847</v>
+        <v>0.1162775804886784</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03486218490732405</v>
+        <v>0.04202130970734776</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2427868466.717873</v>
+        <v>1701989358.441436</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09514944351426484</v>
+        <v>0.08936714785113345</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04966444697983841</v>
+        <v>0.04384019436218535</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3461523022.33229</v>
+        <v>3345772442.92907</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1720371352307964</v>
+        <v>0.165611492099061</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03694559298674934</v>
+        <v>0.03529525272788573</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2326574453.743365</v>
+        <v>2516419193.470077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1555363019355473</v>
+        <v>0.1387965231876867</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02349582307991348</v>
+        <v>0.02716623246732672</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1280856477.386493</v>
+        <v>1407389160.592197</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1622973678018239</v>
+        <v>0.120837834988836</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03884202319428135</v>
+        <v>0.03746239261608603</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2344677517.209396</v>
+        <v>2950954818.129463</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1447773956009699</v>
+        <v>0.1282147347476825</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03726497741931829</v>
+        <v>0.03229740632137786</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>374</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3158465403.858997</v>
+        <v>3477225422.174676</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1217164832369127</v>
+        <v>0.1434210125866934</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03798202372176286</v>
+        <v>0.03364443228101049</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1902112449.767383</v>
+        <v>1499898038.953967</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1318651882373189</v>
+        <v>0.1088543994743479</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05431442997762877</v>
+        <v>0.04388333018356735</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1841986387.839115</v>
+        <v>1742026649.031668</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1819735273607224</v>
+        <v>0.1767549786728522</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05147464736828035</v>
+        <v>0.05521437974780367</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2371610567.050825</v>
+        <v>1904876095.193014</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1018079471884654</v>
+        <v>0.1090451908046813</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03102494316559692</v>
+        <v>0.03476589850700948</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4957304768.76419</v>
+        <v>4113005626.95233</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1250148969070177</v>
+        <v>0.09348114916489871</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04889154705868913</v>
+        <v>0.03650808578087196</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>181</v>
+      </c>
+      <c r="J93" t="n">
+        <v>383</v>
+      </c>
+      <c r="K93" t="n">
+        <v>52.71999785245726</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1856346996.522842</v>
+        <v>1847678178.372952</v>
       </c>
       <c r="F94" t="n">
-        <v>0.156531431332898</v>
+        <v>0.1430985102527521</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04100265540009937</v>
+        <v>0.04001701499076782</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2582781811.883624</v>
+        <v>2012099645.749825</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1069479984922486</v>
+        <v>0.1361238252951489</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03555125382747964</v>
+        <v>0.03543814248129547</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2169535389.710959</v>
+        <v>2328907911.328276</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0905106622550195</v>
+        <v>0.1256907062291425</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04160884220039211</v>
+        <v>0.0307154336836505</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3333583627.266278</v>
+        <v>4952891728.391555</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1076256693675346</v>
+        <v>0.1452545548658853</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02125945561520658</v>
+        <v>0.01769038564261366</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>198</v>
+      </c>
+      <c r="J97" t="n">
+        <v>383</v>
+      </c>
+      <c r="K97" t="n">
+        <v>54.08773854759852</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3664179052.044936</v>
+        <v>3468372951.320908</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1085279499301443</v>
+        <v>0.1076453029596722</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02833774105540583</v>
+        <v>0.024480978495656</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3058111520.329051</v>
+        <v>2356881048.851507</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1034442889059129</v>
+        <v>0.1413976957997081</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02267220654895801</v>
+        <v>0.0267939769725605</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3538769073.60345</v>
+        <v>3681639075.960121</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1366560363085514</v>
+        <v>0.162208838783714</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01784562489198508</v>
+        <v>0.02567766866275209</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>176</v>
+      </c>
+      <c r="J100" t="n">
+        <v>383</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3067891829.198629</v>
+        <v>2929622863.070679</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1844838871640248</v>
+        <v>0.1538423685365698</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04516459980903694</v>
+        <v>0.05076771807714765</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
